--- a/Projects/Federal Reserve Data/AAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/AAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -19,13 +19,13 @@
     <t>A</t>
   </si>
   <si>
-    <t>C</t>
+    <t>FFR</t>
   </si>
   <si>
     <t>A Lag</t>
   </si>
   <si>
-    <t>C Lag</t>
+    <t>FFR Lag</t>
   </si>
   <si>
     <t>Constant</t>
@@ -34,22 +34,22 @@
     <t>r2_adj</t>
   </si>
   <si>
-    <t>-0.387***</t>
-  </si>
-  <si>
-    <t>-0.046***</t>
-  </si>
-  <si>
-    <t>-0.077</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>-0.777***</t>
-  </si>
-  <si>
-    <t>-0.838**</t>
+    <t>-0.784***</t>
+  </si>
+  <si>
+    <t>-0.256***</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.44***</t>
+  </si>
+  <si>
+    <t>0.313**</t>
+  </si>
+  <si>
+    <t>0.071</t>
   </si>
 </sst>
 </file>
@@ -459,10 +459,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="C5">
-        <v>0.66</v>
+        <v>0.16</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/Federal Reserve Data/AAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
+++ b/Projects/Federal Reserve Data/AAggregated C&A  Diff-in-DiffDAGVAR 2010-01-31 to 2020-02-29.xlsx
@@ -14,42 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>FFR</t>
+    <t>C</t>
   </si>
   <si>
     <t>A Lag</t>
   </si>
   <si>
-    <t>FFR Lag</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>r2_adj</t>
-  </si>
-  <si>
-    <t>-0.784***</t>
-  </si>
-  <si>
-    <t>-0.256***</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.44***</t>
-  </si>
-  <si>
-    <t>0.313**</t>
-  </si>
-  <si>
-    <t>0.071</t>
+    <t>C Lag</t>
+  </si>
+  <si>
+    <t>-0.379***</t>
+  </si>
+  <si>
+    <t>-0.047***</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>-0.785***</t>
   </si>
 </sst>
 </file>
@@ -407,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -426,10 +414,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -437,32 +425,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0.59</v>
-      </c>
-      <c r="C5">
-        <v>0.16</v>
       </c>
     </row>
   </sheetData>
